--- a/GC_2024/GC_2024_Info.xlsx
+++ b/GC_2024/GC_2024_Info.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aegworldwide-my.sharepoint.com/personal/jsunkara_axs_com/Documents/Documents/AXS/Learning_Repo/GC_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D31D501-3A3E-471E-A5DC-8A129D193343}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2C21B8-82D9-46AF-A927-A426B661FC0B}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-60" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
+    <workbookView xWindow="30612" yWindow="-60" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
-    <sheet name="Books" sheetId="2" r:id="rId2"/>
-    <sheet name="Awards_Memeberships" sheetId="3" r:id="rId3"/>
-    <sheet name="Patents" sheetId="5" r:id="rId4"/>
-    <sheet name="Expenses" sheetId="4" r:id="rId5"/>
+    <sheet name="PeerReview_Juding_Work" sheetId="6" r:id="rId2"/>
+    <sheet name="Books" sheetId="2" r:id="rId3"/>
+    <sheet name="Awards_Memeberships" sheetId="3" r:id="rId4"/>
+    <sheet name="Patents" sheetId="5" r:id="rId5"/>
+    <sheet name="Expenses" sheetId="4" r:id="rId6"/>
+    <sheet name="TDO" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
   <si>
     <t>Year</t>
   </si>
@@ -442,21 +444,121 @@
     <t xml:space="preserve">2023; 1(1): 102 </t>
   </si>
   <si>
-    <t>8 certs-275
-new certs-300
+    <t>IOASD</t>
+  </si>
+  <si>
+    <t>Sr. Oracle Database Administrator, Siri Info Solutions Inc</t>
+  </si>
+  <si>
+    <t>Journal of Recent Trends in Computer Science and Engineering (JRTCSE)</t>
+  </si>
+  <si>
+    <t>https://jrtcse.com/index.php/home/article/view/JRTCSE.2020.1.3/JRTCSE.2020.1.3</t>
+  </si>
+  <si>
+    <t>Vol. 8, No.1, January-June 2020,PP. 25-45</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by IAEME</t>
+  </si>
+  <si>
+    <t>Link: https://www.registered-design.service.gov.uk/find/6396813
+Design number: 6396813
+Grant date: 15 October 2024
+Registration date: 11 October 2024</t>
+  </si>
+  <si>
+    <t>AI BASED CLOUD SECURITY DETECTING DEVICE</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>https://www.registered-design.service.gov.uk/find/6396813</t>
+  </si>
+  <si>
+    <t>https://www.sassociety.com/fellow-member-fsass/</t>
+  </si>
+  <si>
+    <t>https://www.theiet.org/membership/become-a-member/fellow-membership/become-a-fellow</t>
+  </si>
+  <si>
+    <t>https://www.iema.net/join-online/fellow-application/</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>https://globalrecognitionawards.org/#enter</t>
+  </si>
+  <si>
+    <t>"202441078901"</t>
+  </si>
+  <si>
+    <t>ECHOES IN PIXELS: THE INTERSECTION OF IMAGE PROCESSING AND SOUND DETECTION THROUGH THE LENS OF AI AND ML</t>
+  </si>
+  <si>
+    <t>Siri Info Solutions Inc, Sr. Oracle Database
+Administrator</t>
+  </si>
+  <si>
+    <t>IJDR (International Journal of Development Research )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol. 10, Issue, 08, pp. 39735-39743, August, 2020 </t>
+  </si>
+  <si>
+    <t>https://journalijdr.com/echoes-pixels-intersection-image-processing-and-sound-detection-through-lens-ai-and-ml</t>
+  </si>
+  <si>
+    <t>Exploring AI Algorithms for Cancer Classification and Prediction Using Electronic Health Records</t>
+  </si>
+  <si>
+    <t>Sr. Oracle Database Administrator, Siri Info Solutions Inc., USA</t>
+  </si>
+  <si>
+    <t>Journal of Artificial Intelligence and Big Data</t>
+  </si>
+  <si>
+    <t>https://www.scipublications.com/journal/index.php/JAIBD/article/view/1109</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>1 Paper -200 ,8 Certs -275 , 1 patent-200</t>
+  </si>
+  <si>
+    <t>View of Unveiling the Hidden Patterns: AI-Driven Innovations in Image Processing and Acoustic Signal Detection</t>
+  </si>
+  <si>
+    <t>8 certs-275 -10/17/2024
+5 certs-300--10/17/2024
 UK patent-200
-new review-250
-needto check-250</t>
-  </si>
-  <si>
-    <t>1 Paper ,1 Review , 1 patent</t>
+8 certs-250 -10/19/2024
+6 Certs-250-10/21/2024</t>
+  </si>
+  <si>
+    <t>Follow ASIA Research</t>
+  </si>
+  <si>
+    <t>Follow Bestow</t>
+  </si>
+  <si>
+    <t>Update Journals</t>
+  </si>
+  <si>
+    <t>Apply FellowShips</t>
+  </si>
+  <si>
+    <t>Complete GRD Journal reviews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +627,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -607,6 +721,8 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,7 +1065,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +1075,7 @@
     <col min="3" max="3" width="86.33203125" customWidth="1"/>
     <col min="4" max="4" width="34.44140625" customWidth="1"/>
     <col min="5" max="5" width="69.6640625" customWidth="1"/>
-    <col min="6" max="6" width="65" customWidth="1"/>
+    <col min="6" max="6" width="80.109375" customWidth="1"/>
     <col min="7" max="7" width="134.44140625" customWidth="1"/>
     <col min="8" max="8" width="77.88671875" customWidth="1"/>
   </cols>
@@ -1319,108 +1435,156 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="25">
+        <v>43971</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="18">
+        <v>44044</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="E16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="18">
+        <v>44192</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1457,13 +1621,40 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{533B2480-F7C2-47AA-9AA0-4EF94AEDABC4}"/>
     <hyperlink ref="G12" r:id="rId10" xr:uid="{6D364D62-A1DB-4656-ADC6-8FB778E29F82}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{8298B19C-EFD5-4E0A-88DE-BD6A12E5C636}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{3ED28158-43AD-4121-940E-DFB53CCA38C7}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{82737A19-BE89-4529-90C4-0D2ED8315894}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{3E94AE2C-CE9B-47CB-B043-225942A74844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2256B2-32E0-43D2-92FD-DDE2B4B4B67E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5094EC0F-95C5-45C6-9A84-2E84E2B53730}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1565,17 +1756,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE10A49-092B-4834-AD10-A5B9A4A6A007}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.88671875" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="49.21875" customWidth="1"/>
@@ -1682,28 +1873,62 @@
         <v>84</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{EF312391-9B63-48CB-A6A8-9A00F2612A88}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{FD97BBE3-1C7B-4B97-9582-000C5F1E59AF}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{B10FBB49-59CA-4DB1-94B6-48212529D233}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{8CD413EB-60DF-40B7-BB6C-A3FB0A6EB1E7}"/>
+    <hyperlink ref="A19" r:id="rId5" xr:uid="{7E8438F9-926D-40DC-A3E9-9C93A35B123E}"/>
+    <hyperlink ref="A20" r:id="rId6" xr:uid="{FC791D90-51C7-4275-92DD-4CDC135D039B}"/>
+    <hyperlink ref="A21" r:id="rId7" xr:uid="{98641A13-962A-46E6-806E-EC9D8F7C4809}"/>
+    <hyperlink ref="A25" r:id="rId8" location="enter" xr:uid="{90D52DDF-F25C-4D92-B438-9E63351A6A63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB420DBF-7EA6-40E9-B453-8D3B3843C641}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="75.21875" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="71.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
@@ -1744,25 +1969,48 @@
         <v>88</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="16">
+        <v>45576</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B6524BA1-9603-4961-8942-87FF5FBBA714}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{C8DAAED8-F433-48AD-B60E-E8ED7A04AFDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41D3C95-EC46-48EA-82B5-C5D2DD8680EE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,7 +2139,7 @@
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>1257</v>
@@ -1902,10 +2150,53 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F81809A-3278-4EC4-9BD3-BED0AFED2E29}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/GC_2024/GC_2024_Info.xlsx
+++ b/GC_2024/GC_2024_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aegworldwide-my.sharepoint.com/personal/jsunkara_axs_com/Documents/Documents/AXS/Learning_Repo/GC_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2C21B8-82D9-46AF-A927-A426B661FC0B}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159D3323-0E0A-47A6-B004-5FA5E91DBC21}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-60" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
   <si>
     <t>Year</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Article </t>
-  </si>
-  <si>
-    <t>THE FUTURE OF
-CLOUD:
-Integrating AI, ML, and Generative AI
-for Scalable Solutions</t>
   </si>
   <si>
     <t>NO</t>
@@ -553,12 +547,94 @@
   <si>
     <t>Complete GRD Journal reviews</t>
   </si>
+  <si>
+    <t>No.of Juding Certificates by Science Publications</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by ESP</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by IJRIAR</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by CMJ</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by GRD</t>
+  </si>
+  <si>
+    <t>AI POWERED DISTRIBUTED DATABASES: ENHANCING DATA
+DISTRIBUTION AND MANAGEMENT WITH AI FOR SCALABILITY AND
+SPEED</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>Predictive Analytics for Project Risk
+Management Using Machine Learning</t>
+  </si>
+  <si>
+    <t>AXS Group LLC, Los Angeles, CA, USA</t>
+  </si>
+  <si>
+    <t>Scientific Research Publishing</t>
+  </si>
+  <si>
+    <t>https://www.scirp.org/journal/paperinformation?paperid=137197</t>
+  </si>
+  <si>
+    <t>Vol.12 No.4, November 2024</t>
+  </si>
+  <si>
+    <t>USING AI AND MACHINE LEARNING TO SECURE CLOUD NETWORKS: A
+MODERN APPROACH TO CYBERSECURITY</t>
+  </si>
+  <si>
+    <t>Siri Info Solutions Inc</t>
+  </si>
+  <si>
+    <t>IJESRT</t>
+  </si>
+  <si>
+    <t>https://www.ijesrt.com/Old_IJESRT/issues%20pdf%20file/Archives-2022/December-2022/3_Dinesh-%20Cloud%20Networks%20(8_).pdf</t>
+  </si>
+  <si>
+    <t>7 Certs- CMJ-300, 2 Paper-400; GRD-275</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by  JRTCSE</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by McStem(Bestow)</t>
+  </si>
+  <si>
+    <t>No.of Juding Certificates by  ScienceResearch</t>
+  </si>
+  <si>
+    <t>5 Cerets JRTCSE + Science Publiocation5 -450 , 3 Papers -600</t>
+  </si>
+  <si>
+    <t>Threws Memberships -2, 2 Awards</t>
+  </si>
+  <si>
+    <t>Fellow Memebrship</t>
+  </si>
+  <si>
+    <t>Thews Fellow Memebrsehip</t>
+  </si>
+  <si>
+    <t>Threws</t>
+  </si>
+  <si>
+    <t>Certificate of Appreciation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +715,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -687,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -723,6 +812,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,10 +831,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BBC9AF-B500-49EF-AE0D-C6BB1A51FB37}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1202,7 @@
         <v>44166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>40</v>
@@ -1140,7 +1228,7 @@
         <v>44285</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>40</v>
@@ -1270,7 +1358,7 @@
         <v>45505</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>40</v>
@@ -1290,7 +1378,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="18">
         <v>45281</v>
@@ -1302,21 +1390,21 @@
         <v>40</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="21">
         <v>44896</v>
@@ -1326,21 +1414,21 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="23">
         <v>45132</v>
@@ -1348,71 +1436,77 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" t="s">
         <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
         <v>121</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="18">
         <v>45222</v>
@@ -1422,95 +1516,142 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" t="s">
         <v>127</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="25">
         <v>43971</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="18">
         <v>44044</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
         <v>146</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
         <v>147</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="18">
         <v>44192</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
         <v>151</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" t="s">
         <v>153</v>
       </c>
-      <c r="H17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="18">
+        <v>45602</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="18">
+        <v>44573</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -1624,29 +1765,97 @@
     <hyperlink ref="G15" r:id="rId12" xr:uid="{3ED28158-43AD-4121-940E-DFB53CCA38C7}"/>
     <hyperlink ref="G16" r:id="rId13" xr:uid="{82737A19-BE89-4529-90C4-0D2ED8315894}"/>
     <hyperlink ref="G17" r:id="rId14" xr:uid="{3E94AE2C-CE9B-47CB-B043-225942A74844}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{DF948CA8-B743-4FC1-A8EC-F373D87DEBD5}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{128F6944-7C3A-44C9-B896-D9A250C34C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2256B2-32E0-43D2-92FD-DDE2B4B4B67E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1689,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -1701,54 +1910,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
       <c r="B2" s="5">
         <v>2024</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <v>2024</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1760,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE10A49-092B-4834-AD10-A5B9A4A6A007}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,132 +1982,172 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="16">
         <v>45366</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="17">
         <v>44947</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="17">
         <v>45537</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="28">
+        <v>45627</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="28">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="28">
+        <v>45627</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +2170,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,58 +2184,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="17">
         <v>45550</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="16">
         <v>45576</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="B4" s="17">
+        <v>45582</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2002,34 +2258,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41D3C95-EC46-48EA-82B5-C5D2DD8680EE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>600</v>
@@ -2040,7 +2296,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -2051,7 +2307,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>250</v>
@@ -2062,7 +2318,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -2073,7 +2329,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -2084,7 +2340,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2095,7 +2351,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>400</v>
@@ -2106,7 +2362,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -2117,7 +2373,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>600</v>
@@ -2128,7 +2384,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -2139,7 +2395,7 @@
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>1257</v>
@@ -2150,10 +2406,46 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>675</v>
+      </c>
+      <c r="D13">
+        <v>56156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14">
+        <v>975</v>
+      </c>
+      <c r="D14">
+        <v>81404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15">
+        <v>1050</v>
+      </c>
+      <c r="D15">
+        <v>87895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>950</v>
+      </c>
+      <c r="D16">
+        <v>79534</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2458,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,27 +2468,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/GC_2024/GC_2024_Info.xlsx
+++ b/GC_2024/GC_2024_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aegworldwide-my.sharepoint.com/personal/jsunkara_axs_com/Documents/Documents/AXS/Learning_Repo/GC_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159D3323-0E0A-47A6-B004-5FA5E91DBC21}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{C125ED7A-ECBC-49AB-B96C-B6EC714E2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FFAA30-89E0-46CC-AAAD-24E3AC25158F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{F18F7AD0-0357-4290-A9DD-4FECAB7B5CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="197">
   <si>
     <t>Year</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Volume 1, Issue, 1, September 2024</t>
-  </si>
-  <si>
-    <t>The Impact of AI and ML on ERP Systems and Supply Chain Management</t>
   </si>
   <si>
     <t>Axs Group LLC Sr. Database Engineer</t>
@@ -628,6 +625,41 @@
   </si>
   <si>
     <t>Certificate of Appreciation</t>
+  </si>
+  <si>
+    <t>Analysis of Big Data for the Financial Sector Using Machine Learning
+Perspective on Stock Prices</t>
+  </si>
+  <si>
+    <t>eSiri Info Solutions Inc., Senior Oracle Database Administrator</t>
+  </si>
+  <si>
+    <t>https://ijriar.com/docs/2021/2021-apr/IJRIAR-04.pdf</t>
+  </si>
+  <si>
+    <t>International Journal of Recent Innovations in Academic
+Research</t>
+  </si>
+  <si>
+    <t>Volume-5, Issue-4, April-2021: 29-40</t>
+  </si>
+  <si>
+    <t>Optimizing Production Efficiency in Manufacturing using Big Data and AI/ML</t>
+  </si>
+  <si>
+    <t>Siri Info Sol. Inc. Sr. Oracle DB Admin.</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=5080585</t>
+  </si>
+  <si>
+    <t>Data Engineering Solutions:The Impact of AI and ML on ERP Systems and Supply Chain Management</t>
+  </si>
+  <si>
+    <t>THE FUTURE OF
+CLOUD:
+Integrating AI, ML, and Generative AI
+for Scalable Solutions</t>
   </si>
 </sst>
 </file>
@@ -831,6 +863,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BBC9AF-B500-49EF-AE0D-C6BB1A51FB37}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1206,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1202,10 +1238,10 @@
         <v>44166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -1228,10 +1264,10 @@
         <v>44285</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -1257,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
@@ -1277,13 +1313,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="6">
-        <v>44562</v>
+        <v>44866</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
@@ -1300,7 +1336,7 @@
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6">
         <v>44927</v>
@@ -1309,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -1335,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
@@ -1352,33 +1388,33 @@
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="B8" s="6">
         <v>45505</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="18">
         <v>45281</v>
@@ -1387,24 +1423,24 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
         <v>98</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="21">
         <v>44896</v>
@@ -1414,21 +1450,21 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="23">
         <v>45132</v>
@@ -1437,76 +1473,76 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" t="s">
         <v>109</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.8" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
         <v>120</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="18">
         <v>45222</v>
@@ -1516,21 +1552,21 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
         <v>124</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" t="s">
         <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="25">
         <v>43971</v>
@@ -1539,24 +1575,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="18">
         <v>44044</v>
@@ -1566,21 +1602,21 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
         <v>145</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
         <v>146</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="18">
         <v>44192</v>
@@ -1589,24 +1625,24 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
         <v>150</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" t="s">
         <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="18">
         <v>45602</v>
@@ -1615,24 +1651,24 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" t="s">
         <v>170</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="H18" t="s">
         <v>172</v>
-      </c>
-      <c r="H18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="18">
         <v>44573</v>
@@ -1641,29 +1677,55 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
         <v>175</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44314</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="21">
+        <v>45597</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
@@ -1742,12 +1804,6 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1767,9 +1823,12 @@
     <hyperlink ref="G17" r:id="rId14" xr:uid="{3E94AE2C-CE9B-47CB-B043-225942A74844}"/>
     <hyperlink ref="G18" r:id="rId15" xr:uid="{DF948CA8-B743-4FC1-A8EC-F373D87DEBD5}"/>
     <hyperlink ref="G19" r:id="rId16" xr:uid="{128F6944-7C3A-44C9-B896-D9A250C34C7D}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{D7A93651-19E4-4288-A4A3-C9AC9CA480B1}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{69FD6224-9CF2-49CE-BEE3-1AA6C91171D5}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{D9C8EE75-6171-4C2A-A2D3-249B4185784D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1777,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2256B2-32E0-43D2-92FD-DDE2B4B4B67E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1788,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -1796,7 +1855,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1804,7 +1863,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1812,7 +1871,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1820,7 +1879,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1828,7 +1887,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1836,7 +1895,7 @@
     </row>
     <row r="7" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="29">
         <v>6</v>
@@ -1844,7 +1903,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1852,7 +1911,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1886,7 +1945,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1898,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -1910,52 +1969,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="B2" s="5">
         <v>2024</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <v>2024</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1982,119 +2043,119 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
       </c>
       <c r="C4" s="16">
         <v>45366</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="17">
         <v>44947</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
       </c>
       <c r="C6" s="17">
         <v>45537</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
         <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
       </c>
       <c r="C8" s="28">
         <v>45627</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="28">
         <v>45992</v>
@@ -2102,29 +2163,29 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="28">
         <v>45627</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>12000</v>
@@ -2132,22 +2193,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB420DBF-7EA6-40E9-B453-8D3B3843C641}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2184,67 +2245,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="17">
         <v>45550</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="16">
         <v>45576</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="17">
         <v>45582</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
         <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2271,21 +2332,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>600</v>
@@ -2296,7 +2357,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -2307,7 +2368,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>250</v>
@@ -2318,7 +2379,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -2329,7 +2390,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -2340,7 +2401,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2351,7 +2412,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>400</v>
@@ -2362,7 +2423,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -2373,7 +2434,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>600</v>
@@ -2384,7 +2445,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -2395,7 +2456,7 @@
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12">
         <v>1257</v>
@@ -2406,7 +2467,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13">
         <v>675</v>
@@ -2417,7 +2478,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>975</v>
@@ -2428,7 +2489,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>1050</v>
@@ -2439,7 +2500,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16">
         <v>950</v>
@@ -2468,27 +2529,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
